--- a/TSTM_discontiueP2/IC_stock.xlsx
+++ b/TSTM_discontiueP2/IC_stock.xlsx
@@ -74,6 +74,64 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VERFMTc0N0RQ" sheetId="66" state="visible" r:id="rId66"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VERBMjAwNFI=" sheetId="67" state="visible" r:id="rId67"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TDYyMDZO" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RS1MNTk5MUE=" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VERBMjAwNU0=" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SENGNDA5M00=" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzJMMzBBRk4=" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzMwU00xMjBTVA==" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TDYyMTlEU0ExM1RS" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VDE2MzVILTYwMFRSRw==" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzMwSDYwQ1I=" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzVIMTAwVUZO" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RVZBTDYyMDVO" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzJMMjVVRg==" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RS1MNjkyMEQ=" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1REOU5NNTBOLTE=" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzMwTTYwQ1Q=" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QlVMNDE2VA==" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TDQ5NjNE" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TDYyMjlO" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RVZBTDY5MjhRMQ==" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VEVBMzcxOERQ" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzQwMTIwQ1I=" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzM0MEItVFI=" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RUSDEwUjA0QlRS" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RVNEQTE0VjItMUJGMw==" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VERBNzQ5OEw=" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzJIMTAwUkw=" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VDEyMTBULThGUA==" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QlVMNzQxRlA=" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RS1MNjU5OEQwMTNUUg==" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TDYzNzVE" sheetId="97" state="visible" r:id="rId97"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzMwTTgwQ0ctVFI=" sheetId="98" state="visible" r:id="rId98"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFNQMDMxLTFCTTY=" sheetId="99" state="visible" r:id="rId99"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzMwU002MFNS" sheetId="100" state="visible" r:id="rId100"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1REN05NODAtMQ==" sheetId="101" state="visible" r:id="rId101"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RHMzY4NEFEVFI=" sheetId="102" state="visible" r:id="rId102"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TDU5ODZUUg==" sheetId="103" state="visible" r:id="rId103"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzY0MENC" sheetId="104" state="visible" r:id="rId104"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RHRDE0TkM2MEs=" sheetId="105" state="visible" r:id="rId105"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RkxDMDEtMjAwSA==" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VERBNzI5N1NB" sheetId="107" state="visible" r:id="rId107"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RVZBTDYyMDZQRA==" sheetId="108" state="visible" r:id="rId108"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RS1MNjkyNg==" sheetId="109" state="visible" r:id="rId109"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RGNDBORjA2" sheetId="110" state="visible" r:id="rId110"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzIxNzBBRk4=" sheetId="111" state="visible" r:id="rId111"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RGMTNOTTYwTi1I" sheetId="112" state="visible" r:id="rId112"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RVZBTFNUU1IzMC02MFc=" sheetId="113" state="visible" r:id="rId113"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TDYzNzVEMDEzVFI=" sheetId="114" state="visible" r:id="rId114"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzMwTTYwQ0ctVFI=" sheetId="115" state="visible" r:id="rId115"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RHQVAxQVNUUg==" sheetId="116" state="visible" r:id="rId116"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQU0MxMkgwNjVEWQ==" sheetId="117" state="visible" r:id="rId117"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzQwNDVDVA==" sheetId="118" state="visible" r:id="rId118"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQUzMxNzBBRk4=" sheetId="119" state="visible" r:id="rId119"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U1RQU0M4MDY1RFk=" sheetId="120" state="visible" r:id="rId120"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VERBNzQ5Mg==" sheetId="121" state="visible" r:id="rId121"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RVZBTDY5MjZE" sheetId="122" state="visible" r:id="rId122"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TDQ5ODFB" sheetId="123" state="visible" r:id="rId123"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VERBNzI5NVM=" sheetId="124" state="visible" r:id="rId124"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RFNMMDQtMDIyU0M2" sheetId="125" state="visible" r:id="rId125"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SENGNDA5M0JF" sheetId="126" state="visible" r:id="rId126"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -516,6 +574,1226 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市乐腾网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STD7NM80-1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市亨利通微贸易有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>STD7NM80-1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ST/意法</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市锦泰诚业电子有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>STD7NM80-1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2545</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市粤中龙电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STG3684ADTR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>10355</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市创胜兴电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>STG3684ADTR</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市全华盛电子有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>STG3684ADTR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市宇科泰电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>L5986TR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>圣禾堂（深圳）电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STPS640CBY-TR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST()意法半导体</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>2195</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市佰昇电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>STPS640CB</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市森成电子有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>STPS640CB-TR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市盛飞扬电子有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>STPS640CB</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>深圳市意法世纪电子有限公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STPS640CB-TR</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2916</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>深圳市森成电子有限公司</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STPS640CB-TR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HotSell</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>深圳市鸿长为电子有限公司</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STPS640CB-TR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3933</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市龙业芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STGD14NC60KT4</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市东翔创展电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>STGD14NC60KT4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>北京朗格腾龙科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>TDA7297SA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市英飞翔微电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TDA7297SA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市乐钰世纪电子有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TDA7297SA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>兴裕华（深圳）科技有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TDA7297SA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2237</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>深圳市汇商芯城电子有限公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TDA7297SA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>深圳市昌盛芯电子有限公司</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TDA7297SA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -770,7 +2048,3797 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STF40NF06</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>2150</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市美特芯电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>STF40NF06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4799</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市长源创新电子有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>STF40NF06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市广盈佳诚电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>STF40NF06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>深圳市长盛嘉业科技有限公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STF40NF06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市雅信发电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>L6375D013TR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>4777</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STPS30M60CG-TR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>芯联兴科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STPSC12H065DY</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>STM</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市福田区德立信高科电子商行销售一部</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST 现货</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市逸轩电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TDA7492ETR</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ST/现货</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市乐柏宇电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>深圳市绿之叶创新科技有限公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>香港中强科技有限公司</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TDA7492PETR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>深圳市粤汇发科技有限公司</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ST/优质原装供应商</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>深圳市乐钰世纪电子有限公司</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TDA7492P13TR</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>深圳市顺德利科技有限公司</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TDA7492P13TR</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>深圳市乐钰世纪电子有限公司</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ST原装现货</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>深圳市华凯诚科技有限公司</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>深圳市宝华龙科技有限公司</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TDA7492P13TR</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>深圳市嘉誉同创科技有限公司</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TDA7492P13TR</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>深圳市博海威电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>深圳市创利华科技有限公司</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TDA7492P13TR</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>深圳市芯诚鸿电子有限公司</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TDA7492ETR</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ST（假一罚十）</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>深圳市兆恒德科技有限公司</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TDA7492P13TR</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>深圳市中亿电子有限公司</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ST(意法半导体)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>深圳市佳芯恒业科技有限公司</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TDA7492P13TR</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1777</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>深圳市瑞凡微电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ICCP</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TDA7492</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>深圳市同创芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>君盛豪（深圳）互联网半导体科技有限公司</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>深圳市天宇豪科技有限公司</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>深圳市乐钰世纪电子有限公司</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>深圳市勇涛伟业电子有限公司</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TDA7492</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>深圳市杰盛恒芯电子有限公司</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ST/意法</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>深圳市宇恒源电子有限公司</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TDA7492P</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ST原装市场最低价狠便</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>深圳市顺德利科技有限公司</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TDA7492P13TR</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>深圳市四雄微电子有限公司</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>深圳市华凯诚科技有限公司</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>深圳市睿本科技有限公司</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TDA7492</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>深圳市兆恒德科技有限公司</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TDA7492P13TR</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>深圳市意法世纪电子有限公司</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TDA7492P13TR</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>深圳市明佳创科技有限公司</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TDA749213TR</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市威能腾达科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST/意法半导体</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市瑞凡微电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市科瑞芯电子商行</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市科维信电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>深圳市恒芯利源科技有限公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>深圳市润森智雅科技有限公司</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>深圳市康尔源电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>深圳市建芯微电子有限公司</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>深圳市波光电子有限公司</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>圣禾堂（深圳）电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ICCP</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ST()意法半导体</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1833</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>深圳市科维信电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>深圳市华宾鸿业科技有限公司</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>深圳市瑞凯迪科技有限公司</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>深圳市大伦科技有限公司</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>深圳市欧盛达电子有限公司</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>L4981A-1LF</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>深圳市原正品科技有限公司</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>深圳市欣达世纪科技有限公司</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>L4981A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ST/意法</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>深圳市四雄微电子有限公司</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>深圳市坚恒发电子有限公司</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>深圳市云广芯城科技有限公司</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>深圳明信睿科技有限公司</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>深圳市大钊智能电子有限公司</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>L4981AD</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>北京锦华阳光科技有限公司</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>L4981A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2046</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>上海禾晟科技有限公司</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>深圳泽上半导体有限公司</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>L4981A-1LF</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>11057</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>深圳市创胜兴电子有限公司</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>L4981AD013TR</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>深圳市友开发电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>L4981AD 原装</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11224,7 +16292,444 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市宏信源电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>TDA2005M</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>STM</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市腾胜半导体技术开发有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STPS30SM120ST</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST/意法/正品</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市长源创新电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>STPS30SM120ST</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市欣达世纪科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STPS30H60CR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST/意法</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>盛博电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STPS5H100UFN</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11402,6 +16907,756 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市长润泽科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STPS30M60CT</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市东晓微电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>BUL416T</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市绿芯微半导体有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>L4963D</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市方原科技有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>L4963D013TR</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市广盈佳诚电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>L6229N</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>STM</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1480</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市城南微电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>L6229N</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>STM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市泰安强电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>TEA3718DP</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市经纬纳科技有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TEA3718DP</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市佰昇电子有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TEA3718DP</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市中科创电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STPS340B-TR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>3890</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市百利诚电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>STPS340B-TR</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>STM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3087</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市植业科技有限公司（原南方植业电子）</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>STPS340B-TR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -11418,4 +17673,707 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市新进原电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ESDA14V2-1BF3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DFN</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市宝华龙科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>TDA7498L</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>者夕电子深圳有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TDA7498LTR</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>STM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2422</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市芯诚鸿电子有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TDA7498LTR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ST(假一罚十）</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市中亿电子有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TDA7498LTR</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ST(意法半导体)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>深圳市宇科泰电子有限公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TDA7498LTR</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>深圳市乐钰世纪电子有限公司</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TDA7498LTR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市正源鸿业电子科技有限公司（原北京正源伟业电子）</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STPS2H100RL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST/意法</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>7985</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市华尔通科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>E-L6598D013TR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1753</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市雅信发电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>L6375D013TR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>4777</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市华宜电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>STPS30M80CG-TR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>